--- a/src/test/java/testData/TestData.xlsx
+++ b/src/test/java/testData/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -69,66 +63,62 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Lakshay</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>35, Marconi House, Walker Road</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>07777777777</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>tooolsqa@gmail.com</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
-    <t>Framework_002</t>
-  </si>
-  <si>
     <t>iMacs</t>
   </si>
   <si>
     <t>Product 2</t>
   </si>
   <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>22, LimeSquare, City Road</t>
-  </si>
-  <si>
-    <t>testuser_2</t>
-  </si>
-  <si>
-    <t>Test@223</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>richardli1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Ethoca@Richard</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>100 King ST W</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>+1 555 555 5555</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>102 King ST W</t>
+  </si>
+  <si>
+    <t>TestFramework_001</t>
+  </si>
+  <si>
+    <t>TestFramework_002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -292,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,27 +532,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="16.265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.59765625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -570,122 +563,122 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -699,13 +692,15 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId6"/>
-    <hyperlink ref="M2" r:id="rId7"/>
-    <hyperlink ref="C3" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="M3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -715,7 +710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,7 +722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
